--- a/springboot/springboot注解全集.xlsx
+++ b/springboot/springboot注解全集.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>当一个接口存在多个实现类时，指定spring应该注入哪个实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在自动注入的多个候选bean中，有一个primary bean的话，那么这个bean就会是自动注入的目标bean。可以作用在类和方法上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明使用的顺序，作用在参数和类上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,6 +830,22 @@
         <v>55</v>
       </c>
     </row>
+    <row r="27" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/springboot/springboot注解全集.xlsx
+++ b/springboot/springboot注解全集.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dream\technical-information\springboot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B2CA3-6EAD-447B-8D62-7B93BF7824D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,13 +268,29 @@
   </si>
   <si>
     <t>说明使用的顺序，作用在参数和类上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Scheduled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Schedules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可配置多个频次,使用cron表达式指定频次，多个定时任务会单线程串行处理，需使用线程池或者使用@Async开启新的线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,30 +605,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -637,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -645,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
@@ -653,7 +675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
@@ -661,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
@@ -669,7 +691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
@@ -677,7 +699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
@@ -685,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -693,7 +715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -704,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -712,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
@@ -723,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -731,7 +753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -739,7 +761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
@@ -747,7 +769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="28" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
@@ -758,7 +780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -766,7 +788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
@@ -774,7 +796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
@@ -782,7 +804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
@@ -790,7 +812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
@@ -798,7 +820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="28" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
@@ -806,7 +828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
@@ -814,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
@@ -822,7 +844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
@@ -830,7 +852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" ht="28" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
@@ -838,18 +860,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
